--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>e; arunaatsaŋ</t>
+          <t>e; arunaatsaŋ; r</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2220,27 +2220,27 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>apʰtefma</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>喜爱</t>
+          <t>星星</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>a; ftepʰ; ma</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>a-pʰtepʰ-ma</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2252,27 +2252,27 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>sali</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>甜的</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sal; i</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>sal-i</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2284,27 +2284,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>sali</t>
+          <t>asalots</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; concrete; inan.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>甜的</t>
+          <t>甜食</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sal; i</t>
+          <t>a; sal; ots</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sal-i</t>
+          <t>a-sal-ots</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2316,27 +2316,27 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>asalots</t>
+          <t>asalmoŋ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n; concrete; inan.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>甜食</t>
+          <t>甜蜜</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>a; sal; ots</t>
+          <t>a; sal; moŋ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>a-sal-ots</t>
+          <t>a-sal-moŋ</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2348,27 +2348,27 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>asalmoŋ</t>
+          <t>huli</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>甜蜜</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>a; sal; moŋ</t>
+          <t>hul; iʔ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>a-sal-moŋ</t>
+          <t>hul-i</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2380,27 +2380,27 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>huli</t>
+          <t>atˀon</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; concrete; inan.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>好物</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>hul; iʔ</t>
+          <t>a; tˀon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>hul-i</t>
+          <t>a-tˀon</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2412,27 +2412,27 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>atˀon</t>
+          <t>etˀonu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n; concrete; inan.</t>
+          <t>n; hum.; anim.; concrete</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>好物</t>
+          <t>好人</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>a; tˀon</t>
+          <t>e; tˀon; r</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>a-tˀon</t>
+          <t>e-tˀon-r</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2444,27 +2444,27 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>etˀonu</t>
+          <t>pʰolitan</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n; hum.; anim.; concrete</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>好人</t>
+          <t>发疯</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>e; tˀon; r</t>
+          <t>pʰol; itan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>e-tˀon-r</t>
+          <t>pʰol-itan</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2476,27 +2476,27 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>pʰolitan</t>
+          <t>apʰolmoŋ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>发疯</t>
+          <t>疯狂</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pʰol; itan</t>
+          <t>a; pʰol; moŋ</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>pʰol-itan</t>
+          <t>a-pʰol-moŋ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2508,27 +2508,27 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>apʰolmoŋ</t>
+          <t>epʰolim</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>疯狂</t>
+          <t>疯子</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>a; pʰol; moŋ</t>
+          <t>e; pʰol; -im</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>a-pʰol-moŋ</t>
+          <t>e-pʰol-im</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2540,27 +2540,27 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>epʰolim</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>疯子</t>
+          <t>城市</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>e; pʰol; -im</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>e-pʰol-im</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2572,17 +2572,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>rosra</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>n; inan.; concrete</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>城市</t>
+          <t>玫瑰</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2604,17 +2604,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>rosra</t>
+          <t>kʰrua</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n; inan.; concrete</t>
+          <t>n; root; anim.; concrete; k</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>玫瑰</t>
+          <t>花</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2636,17 +2636,17 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>kʰrua</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n; root; anim.; concrete; k</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>狼; 野性</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2700,17 +2700,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>狼; 野性</t>
+          <t>好</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2720,51 +2720,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>tˀoni</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>好</t>
+          <t>好的</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon; i</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>tˀon-i</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>tˀoni</t>
+          <t>tpiri</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>好的</t>
+          <t>圆形的</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tˀon; i</t>
+          <t>tpir; i</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>tˀon-i</t>
+          <t>tpir-i</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2796,91 +2796,91 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>tpiri</t>
+          <t>hutim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>圆形的</t>
+          <t>刺杀</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>tpir; i</t>
+          <t>tim; &lt;w&gt;</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>tpir-i</t>
+          <t>h&lt;w&gt;tim</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ehutimu</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>hutim</t>
+          <t>atˀɨɨtʰim</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract; inan.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>刺杀</t>
+          <t>死亡</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>tim; &lt;w&gt;</t>
+          <t>a; tˀɨɨtim; \INF</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>h&lt;w&gt;tim</t>
+          <t>a-tˀ-(a/ɨ)-htim\INF</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ehutimu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>atˀɨɨtʰim</t>
+          <t>etˀɨɨlimu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n; abstract; inan.</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>死亡</t>
+          <t>死者</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>a; tˀɨɨtim; \INF</t>
+          <t>e; tˀɨɨtim; \PFV; r</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>a-tˀ-(a/ɨ)-htim\INF</t>
+          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2892,27 +2892,27 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>etˀɨɨlimu</t>
+          <t>tˀonutan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>死者</t>
+          <t>变好</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>e; tˀɨɨtim; \PFV; r</t>
+          <t>tˀon; utan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
+          <t>tˀon-utan</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2924,27 +2924,27 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>tˀonutan</t>
+          <t>stal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>变好</t>
+          <t>星星</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tˀon; utan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>tˀon-utan</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2956,17 +2956,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>stal</t>
+          <t>sesu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>美好</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2988,17 +2988,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>sesu</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>美好</t>
+          <t>甜</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3008,29 +3008,29 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sali; asalots; asalmoŋ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>mol</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>甜</t>
+          <t>多</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3040,24 +3040,24 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>sali; asalots; asalmoŋ</t>
+          <t>molu; molutan; molalis</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>mol</t>
+          <t>molu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3067,44 +3067,40 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mol; u</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>molu; molutan; molalis</t>
-        </is>
-      </c>
+          <t>mol-u</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>molu</t>
+          <t>molutan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>增多</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>mol; u</t>
+          <t>mol; utan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>mol-u</t>
+          <t>mol-utan</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -3112,55 +3108,59 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>molutan</t>
+          <t>amni</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; inani.; concrete</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>增多</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mol; utan</t>
+          <t>a; mni</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mol-utan</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>a-mni</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>amni</t>
+          <t>arunasma</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n; inani.; concrete</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>加速</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>a; mni</t>
+          <t>a; runas; ma</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>a-mni</t>
+          <t>a-r&lt;n&gt;ʔas-ma</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>arunasma</t>
+          <t>arunatsaŋ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3182,221 +3182,221 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>加速</t>
+          <t>加速主义</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>a; runas; ma</t>
+          <t>a; runas; taŋ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>a-r&lt;n&gt;ʔas-ma</t>
+          <t>r&lt;n&gt;ʔas-taŋ</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>arunatsaŋ</t>
+          <t>erunatsaŋu</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>加速主义</t>
+          <t>加速主义者</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>a; runas; taŋ</t>
+          <t>e; runas; taŋ; r</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>r&lt;n&gt;ʔas-taŋ</t>
+          <t>e-runas-taŋ-r</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>erunatsaŋu</t>
+          <t>pʰol</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>加速主义者</t>
+          <t>疯</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>e; runas; taŋ; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>e-runas-taŋ-r</t>
+          <t>pʰol</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>pʰoli</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>adj</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>疯</t>
+          <t>疯狂的</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pʰol; iʔ</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>pʰol-iʔ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>pʰoli</t>
+          <t>pʰtef</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>疯狂的</t>
+          <t>喜欢</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>pʰol; iʔ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>pʰol-iʔ</t>
+          <t>pʰtepʰ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>apʰtefma</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>pʰtef</t>
+          <t>aftefma</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>喜欢</t>
+          <t>喜爱</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; ftef; ma</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>pʰtepʰ</t>
+          <t>a-pʰtepʰ-ma</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>apʰtefma</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>aftefma</t>
+          <t>ftef</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>喜爱</t>
+          <t>喜欢</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>a; ftef; ma</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>a-pʰtepʰ-ma</t>
+          <t>pʰtepʰ</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>apʰtefma</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>ftef</t>
+          <t>jaw</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>喜欢</t>
+          <t>要; 想要</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3416,29 +3416,29 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>pʰtepʰ</t>
+          <t>jʔaw</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>apʰtefma</t>
+          <t>jawlu; ajhawlu</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>jaw</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>要; 想要</t>
+          <t>坏</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3448,125 +3448,125 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>jʔaw</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>jawlu; ajhawlu</t>
+          <t>huli; ahulijɨŋ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>ahulijɨŋ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>坏</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; hul; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>a-hul\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>huli; ahulijɨŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>ahulijɨŋ</t>
+          <t>jawlu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>嫉妒; 羡慕</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>a; hul; \INF; ɨŋ</t>
+          <t>jaw; luʔ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>a-hul\INF-ɨŋ</t>
+          <t>jaw-luʔ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ajhawlu</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>jawlu</t>
+          <t>ku</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>嫉妒; 羡慕</t>
+          <t>能; 可以</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaw; luʔ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>jaw-luʔ</t>
+          <t>kuʔ</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ajhawlu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>ku</t>
+          <t>kʰakʰu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>能; 可以</t>
+          <t>坏; 恶劣; 恶意</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>kuʔ</t>
+          <t>kʰakʰuʔ</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3588,27 +3588,27 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>kʰakʰu</t>
+          <t>alhuqusmoŋ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>坏; 恶劣; 恶意</t>
+          <t>分析</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; luqus; \INF; moŋ</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>kʰakʰuʔ</t>
+          <t>a-lʔuq\INF-us-moŋ</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3620,27 +3620,27 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>alhuqusmoŋ</t>
+          <t>tˀɨlnuq</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>分析</t>
+          <t>解开</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>a; luqus; \INF; moŋ</t>
+          <t>tˀ; luq; &lt;n&gt;</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>a-lʔuq\INF-us-moŋ</t>
+          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3652,103 +3652,95 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>tˀɨlnuq</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>解开</t>
+          <t>野性, 野外</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>tˀ; luq; &lt;n&gt;</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>mlu</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>n; anim.; concrete; f</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>野性, 野外</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>e; mlu; ɨŋ</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>mlu</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>emluɨŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>emluɨŋ</t>
+          <t>kkak</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n; anim.; concrete; f</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>狼</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>e; mlu; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>狼</t>
-        </is>
-      </c>
+          <t>敲击声(拟声词)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kukak</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>kkak</t>
+          <t>kʰu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3758,41 +3750,49 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>敲击声(拟声词)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+          <t>能; 可以</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>kʰuʔ</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>kukak</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>kʰu</t>
+          <t>rkotʰi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v； stative</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>能; 可以</t>
+          <t>直的; 正直的</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>rkoc; iʔ</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>kʰuʔ</t>
+          <t>rkoc-iʔ</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3804,12 +3804,12 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>rkotʰi</t>
+          <t>rkotʰu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>v； stative</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>rkoc; iʔ</t>
+          <t>rkoc; uʔ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>rkoc-iʔ</t>
+          <t>rkoc-uʔ</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3836,39 +3836,35 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>rkotʰu</t>
+          <t>ots</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>直的; 正直的</t>
+          <t>东西; 杂物; 玩意儿</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>rkoc; uʔ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>rkoc-uʔ</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>没有定指态，常用重叠态 tsots</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>ots</t>
+          <t>ajhawluwɨŋ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3878,57 +3874,53 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>东西; 杂物; 玩意儿</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>jawlu; a; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>没有定指态，常用重叠态 tsots</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>a-jʔaw-lu\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>ajhawluwɨŋ</t>
+          <t>lu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>嫉妒</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>jawlu; a; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>a-jʔaw-lu\INF-ɨŋ</t>
-        </is>
-      </c>
+          <t>来</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>lunaj</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>hehi</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3938,21 +3930,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>来</t>
+          <t>去</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>lunaj</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>hehi</t>
+          <t>nkas</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3962,137 +3950,141 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>去</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+          <t>残留; 残存; 残余</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>nkas</t>
+          <t>hulijɨŋ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>残留; 残存; 残余</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>hul; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+          <t>hul\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>hulijɨŋ</t>
+          <t>tˀonualis</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>更好</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>hul; \INF; ɨŋ</t>
+          <t>tˀon; uʔ; alis</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>hul\INF-ɨŋ</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>tˀon-uʔ-alis</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>tˀonualis</t>
+          <t>nkats</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; root; intr.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>更好</t>
+          <t>残留; 残余</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>tˀon; uʔ; alis</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>tˀon-uʔ-alis</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>nkats</t>
+          <t>nunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>v; root; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>残留; 残余</t>
+          <t>赘余物; 残渣</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
-        </is>
-      </c>
+          <t>nunɨatsi; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>nunɨatsijɨŋ</t>
+          <t>anunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4107,7 +4099,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>nunɨatsi; \INF; ɨŋ</t>
+          <t>a; nunɨatsi; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -4116,91 +4108,87 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>anunɨatsijɨŋ</t>
+          <t>nunɨatsi</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>赘余物; 残渣</t>
+          <t>残存; 冗余</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>a; nunɨatsi; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>n&lt;n&gt;kats\PFV-iʔ</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>nunɨatsijɨŋ</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>nunɨatsi</t>
+          <t>ehuntimu</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; anim.; hum.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>残存; 冗余</t>
+          <t>谋杀者</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
+          <t>e; huntim; \INF; r</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>n&lt;n&gt;kats\PFV-iʔ</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>nunɨatsijɨŋ</t>
-        </is>
-      </c>
+          <t>e-huntim\INF-r</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>ehuntimu</t>
+          <t>ppaq</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>n; anim.; hum.</t>
+          <t>v; root; tr.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>谋杀者</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>e; huntim; \INF; r</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>e-huntim\INF-r</t>
-        </is>
-      </c>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>ppaq</t>
+          <t>paq</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4214,69 +4202,81 @@
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ʔpaq</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>paq</t>
+          <t>ftoŋ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v; root; tr.</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>做</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>落下; 摔倒</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ʔpaq</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+          <t>pʰtoŋ</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>qˀaftoŋ; qˀaftoŋis</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>ftoŋ</t>
+          <t>qˀaftoŋ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>落下; 摔倒</t>
+          <t>降下</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ; ftoŋ</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>pʰtoŋ</t>
+          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>qˀaftoŋ; qˀaftoŋis</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋ</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4286,116 +4286,164 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>降下</t>
+          <t>降伏</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>qˀ; ftoŋ</t>
+          <t>qˀaftoŋ; is</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
+          <t>qˀapʰtoŋ-is</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>ftoŋep</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>向低处去; 安定</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>qˀaftoŋ; is</t>
+          <t>ftoŋ; ep</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ-is</t>
+          <t>ftoŋ-ep</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>aftoŋepmoŋ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>ftoŋep</t>
+          <t>aftoŋepmoŋ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>向低处去; 安定</t>
+          <t>情况; 关头</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ftoŋ; ep</t>
+          <t>a; ftoŋep; moŋ</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ftoŋ-ep</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>aftoŋepmoŋ</t>
-        </is>
-      </c>
+          <t>a-ftoŋep-moŋ</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>aftoŋepmoŋ</t>
+          <t>ituŋ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>情况; 关头</t>
+          <t>整合; 变完整</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>a; ftoŋep; moŋ</t>
+          <t>jɨtu</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>a-ftoŋep-moŋ</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+          <t>jtuŋ &gt; ituŋ</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ituŋmic</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>jɨtu</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>ɨt</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>ɨt</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>num.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>jɨtu</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>a; tpir</t>
+          <t>a; tpir; r</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>a-tpir</t>
+          <t>a-tpir-r</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>tpir; ic</t>
+          <t>tpir; iʔ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>tpir-ic</t>
+          <t>tpir-iʔ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1616,39 +1616,39 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>pʰtoŋ</t>
+          <t>qˀapʰtoŋ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>落下; 摔倒</t>
+          <t>降下</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ; ftoŋ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>pʰtoŋ</t>
+          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ; qˀapʰtoŋis</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ</t>
+          <t>qˀapʰtoŋis</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1658,185 +1658,185 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>降下</t>
+          <t>降伏</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>qˀ; ftoŋ</t>
+          <t>qˀapʰtoŋ; is</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
+          <t>qˀapʰtoŋ-is</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋis</t>
+          <t>ras</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>轻推</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ; is</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ-is</t>
+          <t>ras</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ruras; tˀaruras; runas</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ras</t>
+          <t>ruras</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>轻推</t>
+          <t>摇动</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ras; &lt;r&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ras</t>
+          <t>r&lt;r&gt;as</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ruras; tˀaruras; runas</t>
+          <t>tˀaruras</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ruras</t>
+          <t>tˀaruras</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>摇动</t>
+          <t>摇晃</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ras; &lt;r&gt;</t>
+          <t>tˀ; ruras</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>r&lt;r&gt;as</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>tˀaruras</t>
-        </is>
-      </c>
+          <t>tˀ-(a/ɨ)-rʔ&lt;r&gt;as</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>tˀaruras</t>
+          <t>runas</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>摇晃</t>
+          <t>推动; 加速</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>tˀ; ruras</t>
+          <t>ras; &lt;n&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-rʔ&lt;r&gt;as</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>rʔ&lt;n&gt;as</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>arunaasma; arunaatsaŋ; erunaatsaŋu</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>runas</t>
+          <t>arunaasma</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>推动; 加速</t>
+          <t>加速</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ras; &lt;n&gt;</t>
+          <t>runas; ma</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as</t>
+          <t>rʔ&lt;n&gt;as-ma</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>arunaasma; arunaatsaŋ; erunaatsaŋu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>arunaasma</t>
+          <t>arunaatsaŋ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1846,241 +1846,241 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>加速</t>
+          <t>加速主义</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>runas; ma</t>
+          <t>runas; taŋ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as-ma</t>
+          <t>rʔ&lt;n&gt;as-taŋ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>arunaatsaŋ</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>加速主义</t>
+          <t>加速主义者</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>runas; taŋ</t>
+          <t>e; arunaatsaŋ; r</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as-taŋ</t>
+          <t>e-arunaatsaŋ-u</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>mpaa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>加速主义者</t>
+          <t>运动; 运行</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>e; arunaatsaŋ; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>e-arunaatsaŋ-u</t>
+          <t>mpah</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀampaa</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>mpaa</t>
+          <t>qˀampaa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>运动; 运行</t>
+          <t>活动</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ; mpaa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>mpah</t>
+          <t>qˀ-(a/ɨ)-mpah</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>qˀampaa</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>qˀampaa</t>
+          <t>luq</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>活动</t>
+          <t>解开; 分解</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>qˀ; mpaa</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-mpah</t>
+          <t>lʔuq</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>luqus; alʰuqusmoŋ; tˀunluq</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>luq</t>
+          <t>luqus</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>解开; 分解</t>
+          <t>解析; 分析</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>luq; us</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>lʔuq</t>
+          <t>lʔuq-us</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>luqus; alʰuqusmoŋ; tˀunluq</t>
+          <t>alhuqusmoŋ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>luqus</t>
+          <t>alʰuqusmoŋ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>解析; 分析</t>
+          <t>分析</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>luq; us</t>
+          <t>a; luq; \INF; moŋ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>lʔuq-us</t>
+          <t>a-luq-moŋ</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>alhuqusmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>alʰuqusmoŋ</t>
+          <t>tˀunluq</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>分析</t>
+          <t>解开</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>a; luq; \INF; moŋ</t>
+          <t>tˀ; luq</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>a-luq-moŋ</t>
+          <t>tˀ-(a/ɨ)-luq</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2092,91 +2092,91 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>tˀunluq</t>
+          <t>tʰɨr</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>解开</t>
+          <t>自由</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>tˀ; luq</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-luq</t>
+          <t>tʰɨr</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀɨɨtʰɨr; aatʰɨrmoŋ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>tʰɨr</t>
+          <t>qˀɨɨtʰɨr</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>自由</t>
+          <t>解放</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ; tʰɨr</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tʰɨr</t>
+          <t>qˀ-(a/ɨ)-tʰɨr</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>qˀɨɨtʰɨr; aatʰɨrmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>qˀɨɨtʰɨr</t>
+          <t>aatʰɨrmoŋ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>解放</t>
+          <t>自由</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>qˀ; tʰɨr</t>
+          <t>a; tʰɨr; moŋ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-tʰɨr</t>
+          <t>a-tʰɨr-moŋ</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2188,27 +2188,27 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>aatʰɨrmoŋ</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>自由</t>
+          <t>星星</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>a; tʰɨr; moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>a-tʰɨr-moŋ</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2220,27 +2220,27 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>sali</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>甜的</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sal; i</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>sal-i</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2252,27 +2252,27 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>sali</t>
+          <t>asalots</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; concrete; inan.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>甜的</t>
+          <t>甜食</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>sal; i</t>
+          <t>a; sal; ots</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sal-i</t>
+          <t>a-sal-ots</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2284,27 +2284,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>asalots</t>
+          <t>asalmoŋ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n; concrete; inan.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>甜食</t>
+          <t>甜蜜</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>a; sal; ots</t>
+          <t>a; sal; moŋ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>a-sal-ots</t>
+          <t>a-sal-moŋ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2316,27 +2316,27 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>asalmoŋ</t>
+          <t>huli</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>甜蜜</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>a; sal; moŋ</t>
+          <t>hul; iʔ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>a-sal-moŋ</t>
+          <t>hul-i</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2348,27 +2348,27 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>huli</t>
+          <t>atˀon</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; concrete; inan.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>好物</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>hul; iʔ</t>
+          <t>a; tˀon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>hul-i</t>
+          <t>a-tˀon</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2380,27 +2380,27 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>atˀon</t>
+          <t>etˀonu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n; concrete; inan.</t>
+          <t>n; hum.; anim.; concrete</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>好物</t>
+          <t>好人</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>a; tˀon</t>
+          <t>e; tˀon; r</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>a-tˀon</t>
+          <t>e-tˀon-r</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2412,27 +2412,27 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>etˀonu</t>
+          <t>pʰolitan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n; hum.; anim.; concrete</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>好人</t>
+          <t>发疯</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>e; tˀon; r</t>
+          <t>pʰol; itan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>e-tˀon-r</t>
+          <t>pʰol-itan</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2444,27 +2444,27 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>pʰolitan</t>
+          <t>apʰolmoŋ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>发疯</t>
+          <t>疯狂</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>pʰol; itan</t>
+          <t>a; pʰol; moŋ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>pʰol-itan</t>
+          <t>a-pʰol-moŋ</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2476,27 +2476,27 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>apʰolmoŋ</t>
+          <t>epʰolim</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>疯狂</t>
+          <t>疯子</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>a; pʰol; moŋ</t>
+          <t>e; pʰol; -im</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>a-pʰol-moŋ</t>
+          <t>e-pʰol-im</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2508,27 +2508,27 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>epʰolim</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>疯子</t>
+          <t>城市</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>e; pʰol; -im</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>e-pʰol-im</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2540,17 +2540,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>rosra</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>n; inan.; concrete</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>城市</t>
+          <t>玫瑰</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2572,17 +2572,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>rosra</t>
+          <t>kʰrua</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n; inan.; concrete</t>
+          <t>n; root; anim.; concrete; k</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>玫瑰</t>
+          <t>花</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2604,17 +2604,17 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>kʰrua</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n; root; anim.; concrete; k</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>狼; 野性</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2668,17 +2668,17 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>狼; 野性</t>
+          <t>好</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2688,71 +2688,71 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>tˀoni</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>好</t>
+          <t>好的</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon; i</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>tˀon-i</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>tˀoni</t>
+          <t>tpiri</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>adj</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>好的</t>
+          <t>圆形的</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tˀon; i</t>
+          <t>tpir; iʔ</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>tˀon-i</t>
+          <t>tpir-iʔ</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2764,91 +2764,91 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>tpiri</t>
+          <t>hutim</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>圆形的</t>
+          <t>刺杀</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tpir; i</t>
+          <t>tim; &lt;w&gt;</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>tpir-i</t>
+          <t>h&lt;w&gt;tim</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ehutimu</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>hutim</t>
+          <t>atˀɨɨtʰim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract; inan.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>刺杀</t>
+          <t>死亡</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>tim; &lt;w&gt;</t>
+          <t>a; tˀɨɨtim; \INF</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>h&lt;w&gt;tim</t>
+          <t>a-tˀ-(a/ɨ)-htim\INF</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ehutimu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>atˀɨɨtʰim</t>
+          <t>etˀɨɨlimu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n; abstract; inan.</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>死亡</t>
+          <t>死者</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>a; tˀɨɨtim; \INF</t>
+          <t>e; tˀɨɨtim; \PFV; r</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>a-tˀ-(a/ɨ)-htim\INF</t>
+          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2860,27 +2860,27 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>etˀɨɨlimu</t>
+          <t>tˀonutan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>死者</t>
+          <t>变好</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>e; tˀɨɨtim; \PFV; r</t>
+          <t>tˀon; utan</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
+          <t>tˀon-utan</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2892,27 +2892,27 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>tˀonutan</t>
+          <t>stal</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>变好</t>
+          <t>星星</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>tˀon; utan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>tˀon-utan</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2924,17 +2924,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>stal</t>
+          <t>sesu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>美好</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2956,17 +2956,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>sesu</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美好</t>
+          <t>甜</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2976,29 +2976,29 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sali; asalots; asalmoŋ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>mol</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>甜</t>
+          <t>多</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3008,24 +3008,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>sali; asalots; asalmoŋ</t>
+          <t>molu; molutan; molalis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>mol</t>
+          <t>molu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3035,44 +3035,40 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mol; uʔ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>molu; molutan; molalis</t>
-        </is>
-      </c>
+          <t>mol-uʔ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>molu</t>
+          <t>molutan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>增多</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>mol; u</t>
+          <t>mol; utan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>mol-u</t>
+          <t>mol-utan</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3080,55 +3076,59 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>molutan</t>
+          <t>amni</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; inani.; concrete</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>增多</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>mol; utan</t>
+          <t>a; mni</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>mol-utan</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>a-mni</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>amni</t>
+          <t>arunasma</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n; inani.; concrete</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>加速</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>a; mni</t>
+          <t>a; runas; ma</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>a-mni</t>
+          <t>a-r&lt;n&gt;ʔas-ma</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3140,7 +3140,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>arunasma</t>
+          <t>arunatsaŋ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3150,145 +3150,145 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>加速</t>
+          <t>加速主义</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>a; runas; ma</t>
+          <t>a; runas; taŋ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>a-r&lt;n&gt;ʔas-ma</t>
+          <t>r&lt;n&gt;ʔas-taŋ</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>arunatsaŋ</t>
+          <t>erunatsaŋu</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>加速主义</t>
+          <t>加速主义者</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>a; runas; taŋ</t>
+          <t>e; runas; taŋ; r</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>r&lt;n&gt;ʔas-taŋ</t>
+          <t>e-runas-taŋ-r</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>erunatsaŋu</t>
+          <t>pʰol</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>加速主义者</t>
+          <t>疯</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>e; runas; taŋ; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>e-runas-taŋ-r</t>
+          <t>pʰol</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>pʰoli</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>adj</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>疯</t>
+          <t>疯狂的</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>pʰol; iʔ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>pʰol-iʔ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>pʰoli</t>
+          <t>aftefma</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>疯狂的</t>
+          <t>喜爱</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>pʰol; iʔ</t>
+          <t>ftef; ma</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>pʰol-iʔ</t>
+          <t>pʰtepʰ-ma</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>pʰtef</t>
+          <t>ftef</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3332,49 +3332,49 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>aftefma</t>
+          <t>jaw</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>喜爱</t>
+          <t>要; 想要</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>a; ftef; ma</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>a-pʰtepʰ-ma</t>
+          <t>jʔaw</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>jawlu; ihawlu</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>ftef</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>喜欢</t>
+          <t>坏</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3384,103 +3384,103 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>pʰtepʰ</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>apʰtefma</t>
+          <t>huli; ahulijɨŋ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>jaw</t>
+          <t>ahulijɨŋ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>要; 想要</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; hul; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>jʔaw</t>
+          <t>a-hul\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>jawlu; ajhawlu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>jawlu</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>坏</t>
+          <t>嫉妒; 羡慕</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>jaw; luʔ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>jaw-luʔ</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>huli; ahulijɨŋ</t>
+          <t>ajhawlu</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>ahulijɨŋ</t>
+          <t>ku</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>能; 可以</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>a; hul; \INF; ɨŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>a-hul\INF-ɨŋ</t>
+          <t>kuʔ</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3492,59 +3492,59 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>jawlu</t>
+          <t>kʰakʰu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>嫉妒; 羡慕</t>
+          <t>坏; 恶劣; 恶意</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaw; luʔ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>jaw-luʔ</t>
+          <t>kʰakʰuʔ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ajhawlu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>ku</t>
+          <t>alhuqusmoŋ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>能; 可以</t>
+          <t>分析</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; luqus; \INF; moŋ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>kuʔ</t>
+          <t>a-lʔuq\INF-us-moŋ</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3556,27 +3556,27 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>kʰakʰu</t>
+          <t>tˀɨlnuq</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>坏; 恶劣; 恶意</t>
+          <t>解开</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀ; luq; &lt;n&gt;</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>kʰakʰuʔ</t>
+          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3588,59 +3588,59 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>alhuqusmoŋ</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>分析</t>
+          <t>野性, 野外</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>a; luqus; \INF; moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>a-lʔuq\INF-us-moŋ</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>tˀɨlnuq</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; anim.; concrete; f</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>解开</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>tˀ; luq; &lt;n&gt;</t>
+          <t>e; mlu; ɨŋ</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3652,59 +3652,51 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>mlu</t>
+          <t>kkak</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>野性, 野外</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>mlu</t>
-        </is>
-      </c>
+          <t>敲击声(拟声词)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>emluɨŋ</t>
+          <t>kukak</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>emluɨŋ</t>
+          <t>kʰu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>n; anim.; concrete; f</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>狼</t>
+          <t>能; 可以</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>e; mlu; ɨŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>狼</t>
+          <t>kʰuʔ</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3716,51 +3708,59 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>kkak</t>
+          <t>rkotʰi</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v； stative</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>敲击声(拟声词)</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+          <t>直的; 正直的</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>rkoc; iʔ</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>rkoc-iʔ</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>kukak</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>kʰu</t>
+          <t>rkotʰu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>能; 可以</t>
+          <t>直的; 正直的</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>rkoc; uʔ</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>kʰuʔ</t>
+          <t>rkoc-uʔ</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3772,59 +3772,55 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>rkotʰi</t>
+          <t>ots</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>v； stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>直的; 正直的</t>
+          <t>东西; 杂物; 玩意儿</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>rkoc; iʔ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>rkoc-iʔ</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>没有定指态，常用重叠态 tsots</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>rkotʰu</t>
+          <t>ajhawluwɨŋ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>直的; 正直的</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>rkoc; uʔ</t>
+          <t>jawlu; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>rkoc-uʔ</t>
+          <t>jʔaw-lu\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3836,67 +3832,55 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>ots</t>
+          <t>lu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>东西; 杂物; 玩意儿</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>来</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>没有定指态，常用重叠态 tsots</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>luʔ &gt; lu (IIdII)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>lunaj</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>ajhawluwɨŋ</t>
+          <t>hehi</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>嫉妒</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>jawlu; a; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>a-jʔaw-lu\INF-ɨŋ</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>去</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>nkas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3906,61 +3890,77 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>来</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>lunaj</t>
-        </is>
-      </c>
+          <t>残留; 残存; 残余</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>hehi</t>
+          <t>hulijɨŋ</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>去</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+          <t>邪恶</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>hul; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>hul\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>nkas</t>
+          <t>tˀonualis</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>残留; 残存; 残余</t>
+          <t>更好</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon; uʔ; alis</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon-uʔ-alis</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -3968,480 +3968,1216 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>hulijɨŋ</t>
+          <t>nkats</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root; intr.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>残留; 残余</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>hul; \INF; ɨŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>hul\INF-ɨŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>tˀonualis</t>
+          <t>nunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>更好</t>
+          <t>赘余物; 残渣</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>tˀon; uʔ; alis</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>tˀon-uʔ-alis</t>
-        </is>
-      </c>
+          <t>nunɨatsi; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>nkats</t>
+          <t>anunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>v; root; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>残留; 残余</t>
+          <t>赘余物; 残渣</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
-        </is>
-      </c>
+          <t>a; nunɨatsi; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
+          <t>nunɨatsi</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>残存; 冗余</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>n&lt;n&gt;kats\PFV-iʔ</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>nunɨatsijɨŋ</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>n; abstract</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>赘余物; 残渣</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>nunɨatsi; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>anunɨatsijɨŋ</t>
+          <t>ehuntimu</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; anim.; hum.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>赘余物; 残渣</t>
+          <t>谋杀者</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>a; nunɨatsi; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>e; huntim; \INF; r</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>e-huntim\INF-r</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>nunɨatsi</t>
+          <t>paq</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; root; tr.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>残存; 冗余</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
-        </is>
-      </c>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>n&lt;n&gt;kats\PFV-iʔ</t>
+          <t>ʔpaq</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>nunɨatsijɨŋ</t>
+          <t>waqma</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>ehuntimu</t>
+          <t>ftoŋ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n; anim.; hum.</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>谋杀者</t>
+          <t>落下; 摔倒</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>e; huntim; \INF; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>e-huntim\INF-r</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
+          <t>pʰtoŋ</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ftoŋep; qˀaftoŋ; qˀaftoŋis</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>ppaq</t>
+          <t>qˀaftoŋ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>v; root; tr.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>做</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+          <t>降下</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>qˀ; ftoŋ</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>qˀaftoŋis</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>paq</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>v; root; tr.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>做</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>降伏</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>qˀaftoŋ; is</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ʔpaq</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+          <t>qˀapʰtoŋ-is</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ftoŋ</t>
+          <t>ftoŋep</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>落下; 摔倒</t>
+          <t>向低处去; 安定</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ftoŋ; ep</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>pʰtoŋ</t>
+          <t>ftoŋ-ep</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>qˀaftoŋ; qˀaftoŋis</t>
+          <t>aftoŋepmoŋ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋ</t>
+          <t>aftoŋepmoŋ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>降下</t>
+          <t>情况; 关头</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>qˀ; ftoŋ</t>
+          <t>a; ftoŋep; moŋ</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>qˀaftoŋis</t>
-        </is>
-      </c>
+          <t>a-ftoŋep-moŋ</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>ituŋ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>整合; 变完整</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>qˀaftoŋ; is</t>
+          <t>jɨtu</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ-is</t>
+          <t>jtuŋ &gt; ituŋ</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ituŋmic</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>ftoŋep</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>v; intr.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>向低处去; 安定</t>
-        </is>
-      </c>
+          <t>jɨtu</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ftoŋ; ep</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>ftoŋ-ep</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>aftoŋepmoŋ</t>
-        </is>
-      </c>
+          <t>ɨt</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>aftoŋepmoŋ</t>
+          <t>ɨt</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>num.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>情况; 关头</t>
+          <t>1; 一</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>a; ftoŋep; moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>a-ftoŋep-moŋ</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>jɨtu</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>ituŋ</t>
+          <t>mni</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; inani.; concrete</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>整合; 变完整</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>jɨtu</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>jtuŋ &gt; ituŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ituŋmic</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>jɨtu</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+          <t>ftefma</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>喜爱</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ɨt</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+          <t>ftef; ma</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>pʰtepʰ-ma</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>ɨt</t>
+          <t>ihawluwɨŋ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>num.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>jawlu; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>jʔaw-lu\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>jɨtu</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>jhawluwɨŋ</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嫉妒</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>jawlu; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>jʔaw-lu\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>spip</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>v; root</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>监视; 检查</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>pˀospiku</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>pˀospiku</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>n; anim.; hum.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>警察</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>pˀo; spik; r</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>pˀo-spik-r &gt; pˀo-spiku</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pˀospikir</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>pˀospikir</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>n; hum.; anim.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>条子; 黑警</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>pˀo; spik; ir</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>spik</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>v; root</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>监视; 检查</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>pˀospiku</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>siku</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>v; root</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>拥有; 掌握</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>v; root</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>拥有; 掌握</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>utam</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>v; root</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>斥责</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>rtam</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>rutamlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>rutamlu</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>辱骂; 谩骂</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>utam; luʔ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>r&lt;w&gt;tam-luʔ</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>rutamluwɨŋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>rutamluwɨŋ</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>辱骂; 谩骂行为</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>rutamlu; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>r&lt;w&gt;tam-luw-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>tkon</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>给</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>turkon; tunkon</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>lem</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>lʔem &gt; lem (VdV) PROG: lˀem &gt; lam PFV: laem INF: lhem &gt; uhem</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>lemma</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>词汇; 词条; 法条</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>lem; ma</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>lemip</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>话语</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>lem; ip</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>titslu</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>吵闹; 喧闹</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>tits; luʔ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>tits-luʔ</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>qˀɨtitslu</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>qˀɨtitslu</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>闹(灾害), 使...受吵闹</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>qˀ; titslu</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>qˀ-(a/ɨ)-tits-luʔ</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>ptor</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>v; root; tr.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>放置</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ptorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>ptorus</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ptor; us</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>ptor-us</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ptorusɨm</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>ptorusɨm</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>反对</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>ptorus; ɨm</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>ts'ats</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>大</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>tsˀas</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>大</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>tsequ</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>v; intr.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>到达; 到来</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>tseq; uʔ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>ŋɨki</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>v; tr.; root</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>认识</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ŋɨkiŋaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>ŋɨkiŋaj</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>承认</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ŋɨki; ŋaj</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>waqma</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>做完的事; 事实</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>paq; \PFV; ma</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>qqan</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>v; tr.; root</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>分成两半; 平分</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>qunoanip</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>qunoanip</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>党派</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>qqan; &lt;n&gt;; \PFV; ip</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>q&lt;n&gt;qan\PFV-ip</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>tits</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>吵闹声; 喧嚣</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>titslu</t>
         </is>
       </c>
     </row>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,39 +1616,39 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ</t>
+          <t>ras</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>降下</t>
+          <t>轻推</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>qˀ; ftoŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
+          <t>ras</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>ruras; tˀaruras; runas</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋis</t>
+          <t>ruras</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1658,61 +1658,57 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>摇动</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ; is</t>
+          <t>ras; &lt;r&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ-is</t>
+          <t>r&lt;r&gt;as</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀaruras</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ras</t>
+          <t>tˀaruras</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>轻推</t>
+          <t>摇晃</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀ; ruras</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ras</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ruras; tˀaruras; runas</t>
-        </is>
-      </c>
+          <t>tˀ-(a/ɨ)-rʔ&lt;r&gt;as</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ruras</t>
+          <t>runas</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1722,109 +1718,113 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>摇动</t>
+          <t>推动; 加速</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ras; &lt;r&gt;</t>
+          <t>ras; &lt;n&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>r&lt;r&gt;as</t>
+          <t>rʔ&lt;n&gt;as</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>tˀaruras</t>
+          <t>arunaasma; arunaatsaŋ; erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>tˀaruras</t>
+          <t>arunaasma</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>摇晃</t>
+          <t>加速</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>tˀ; ruras</t>
+          <t>runas; ma</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-rʔ&lt;r&gt;as</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>rʔ&lt;n&gt;as-ma</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>runas</t>
+          <t>arunaatsaŋ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>推动; 加速</t>
+          <t>加速主义</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ras; &lt;n&gt;</t>
+          <t>runas; taŋ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as</t>
+          <t>rʔ&lt;n&gt;as-taŋ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>arunaasma; arunaatsaŋ; erunaatsaŋu</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>arunaasma</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>加速</t>
+          <t>加速主义者</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>runas; ma</t>
+          <t>e; arunaatsaŋ; r</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as-ma</t>
+          <t>e-arunaatsaŋ-u</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1836,59 +1836,59 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>arunaatsaŋ</t>
+          <t>mpaa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>加速主义</t>
+          <t>运动; 运行</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>runas; taŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>rʔ&lt;n&gt;as-taŋ</t>
+          <t>mpah</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>qˀampaa</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>qˀampaa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>加速主义者</t>
+          <t>活动</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>e; arunaatsaŋ; r</t>
+          <t>qˀ; mpaa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>e-arunaatsaŋ-u</t>
+          <t>qˀ-(a/ɨ)-mpah</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1900,17 +1900,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>mpaa</t>
+          <t>luq</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>运动; 运行</t>
+          <t>解开; 分解</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1920,19 +1920,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>mpah</t>
+          <t>lʔuq</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>qˀampaa</t>
+          <t>luqus; uhuqusmoŋ; tˀunluq</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>qˀampaa</t>
+          <t>luqus</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1942,145 +1942,145 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>活动</t>
+          <t>解析; 分析</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>qˀ; mpaa</t>
+          <t>luq; us</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-mpah</t>
+          <t>lʔuq-us</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>alhuqusmoŋ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>luq</t>
+          <t>alʰuqusmoŋ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>解开; 分解</t>
+          <t>分析</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; luq; \INF; moŋ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>lʔuq</t>
+          <t>a-luq-moŋ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>luqus; alʰuqusmoŋ; tˀunluq</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>luqus</t>
+          <t>tˀunluq</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>解析; 分析</t>
+          <t>解开</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>luq; us</t>
+          <t>tˀ; luq</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>lʔuq-us</t>
+          <t>tˀ-(a/ɨ)-luq</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>alhuqusmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>alʰuqusmoŋ</t>
+          <t>tʰɨr</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>分析</t>
+          <t>自由</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>a; luq; \INF; moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>a-luq-moŋ</t>
+          <t>tʰɨr</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀɨɨtʰɨr; aatʰɨrmoŋ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>tˀunluq</t>
+          <t>qˀɨɨtʰɨr</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>解开</t>
+          <t>解放</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>tˀ; luq</t>
+          <t>qˀ; tɨr</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-luq</t>
+          <t>qˀ-(a/ɨ)-tʰɨr</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2092,12 +2092,12 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>tʰɨr</t>
+          <t>aatʰɨrmoŋ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2107,44 +2107,44 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; tɨr; \INF; moŋ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>tʰɨr</t>
+          <t>a-htɨr-moŋ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>qˀɨɨtʰɨr; aatʰɨrmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>qˀɨɨtʰɨr</t>
+          <t>sali</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>解放</t>
+          <t>甜的</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>qˀ; tʰɨr</t>
+          <t>sal; i</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-tʰɨr</t>
+          <t>sal-i</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2156,27 +2156,27 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>aatʰɨrmoŋ</t>
+          <t>asalots</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; concrete; inan.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>自由</t>
+          <t>甜食</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>a; tʰɨr; moŋ</t>
+          <t>a; sal; ots</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>a-tʰɨr-moŋ</t>
+          <t>a-sal-ots</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2188,27 +2188,27 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>asalmoŋ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>甜蜜</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; sal; moŋ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>stʰal</t>
+          <t>a-sal-moŋ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>sali</t>
+          <t>huli</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2230,17 +2230,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>甜的</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>sal; i</t>
+          <t>hul; iʔ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sal-i</t>
+          <t>hul-i</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>asalots</t>
+          <t>atˀon</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2262,17 +2262,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>甜食</t>
+          <t>好物</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>a; sal; ots</t>
+          <t>a; tˀon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>a-sal-ots</t>
+          <t>a-tˀon</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2284,27 +2284,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>asalmoŋ</t>
+          <t>etˀonu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; hum.; anim.; concrete</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>甜蜜</t>
+          <t>好人</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>a; sal; moŋ</t>
+          <t>e; tˀon; r</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>a-sal-moŋ</t>
+          <t>e-tˀon-r</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2316,27 +2316,27 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>huli</t>
+          <t>pʰolitan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>发疯</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>hul; iʔ</t>
+          <t>pʰol; itan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>hul-i</t>
+          <t>pʰol-itan</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2348,27 +2348,27 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>atˀon</t>
+          <t>apʰolmoŋ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n; concrete; inan.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>好物</t>
+          <t>疯狂</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>a; tˀon</t>
+          <t>a; pʰol; moŋ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>a-tˀon</t>
+          <t>a-pʰol-moŋ</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2380,27 +2380,27 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>etˀonu</t>
+          <t>epʰolim</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n; hum.; anim.; concrete</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>好人</t>
+          <t>疯子</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>e; tˀon; r</t>
+          <t>e; pʰol; -im</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>e-tˀon-r</t>
+          <t>e-pʰol-im</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2412,27 +2412,27 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>pʰolitan</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>发疯</t>
+          <t>城市</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>pʰol; itan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>pʰol-itan</t>
+          <t>pˀo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2444,27 +2444,27 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>apʰolmoŋ</t>
+          <t>rosra</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; inan.; concrete</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>疯狂</t>
+          <t>玫瑰</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>a; pʰol; moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>a-pʰol-moŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2476,27 +2476,27 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>epʰolim</t>
+          <t>kʰrua</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>n; root; anim.; concrete; k</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>疯子</t>
+          <t>花</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>e; pʰol; -im</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>e-pʰol-im</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>城市</t>
+          <t>狼; 野性</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>pˀo</t>
+          <t>mluɨ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2540,17 +2540,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>rosra</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>n; inan.; concrete</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>玫瑰</t>
+          <t>好</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2560,39 +2560,39 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>kʰrua</t>
+          <t>tˀoni</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>n; root; anim.; concrete; k</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>好的</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon; i</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀon-i</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2604,27 +2604,27 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>tpiri</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>adj</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>圆形的</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tpir; iʔ</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>tpir-iʔ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2636,91 +2636,91 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>hutim</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>狼; 野性</t>
+          <t>刺杀</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tim; &lt;w&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>mluɨ</t>
+          <t>h&lt;w&gt;tim</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ehutimu</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>atˀɨɨtʰim</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>n; abstract; inan.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>好</t>
+          <t>死亡</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; tˀɨɨtim; \INF</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>tˀon</t>
+          <t>a-tˀ-(a/ɨ)-htim\INF</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>tˀoni; atˀon; etˀonu; tˀonutan; tˀonualis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>tˀoni</t>
+          <t>etˀɨɨlimu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>好的</t>
+          <t>死者</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>tˀon; i</t>
+          <t>e; tˀɨɨtim; \PFV; r</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>tˀon-i</t>
+          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2732,27 +2732,27 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>tpiri</t>
+          <t>tˀonutan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>圆形的</t>
+          <t>变好</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tpir; iʔ</t>
+          <t>tˀon; utan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>tpir-iʔ</t>
+          <t>tˀon-utan</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2764,59 +2764,59 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>hutim</t>
+          <t>stal</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; root</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>刺杀</t>
+          <t>星星</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tim; &lt;w&gt;</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>h&lt;w&gt;tim</t>
+          <t>stʰal</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ehutimu</t>
+          <t>stalip</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>atˀɨɨtʰim</t>
+          <t>sesu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n; abstract; inan.</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>死亡</t>
+          <t>美好</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>a; tˀɨɨtim; \INF</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>a-tˀ-(a/ɨ)-htim\INF</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2828,275 +2828,275 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>etˀɨɨlimu</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>root; n</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>死者</t>
+          <t>甜</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>e; tˀɨɨtim; \PFV; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>e-tˀ-(a/ɨ)-htim\PFV-r</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>sali; asalots; asalmoŋ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>tˀonutan</t>
+          <t>mol</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>变好</t>
+          <t>多</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tˀon; utan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>tˀon-utan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>molu; molutan; molalis</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>stal</t>
+          <t>molu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>n; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>星星</t>
+          <t>多</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mol; uʔ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>stʰal</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mol-uʔ</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>sesu</t>
+          <t>molutan</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美好</t>
+          <t>增多</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>mol; utan</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>mol-utan</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>arunasma</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>root; n</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>甜</t>
+          <t>加速</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; runas; ma</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>a-r&lt;n&gt;ʔas-ma</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>sali; asalots; asalmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>mol</t>
+          <t>arunatsaŋ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>加速主义</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; runas; taŋ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>r&lt;n&gt;ʔas-taŋ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>molu; molutan; molalis</t>
+          <t>erunaatsaŋu</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>molu</t>
+          <t>erunatsaŋu</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; hum.; anim.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>加速主义者</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>mol; uʔ</t>
+          <t>e; runas; taŋ; r</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>mol-uʔ</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>e-runas-taŋ-r</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>molutan</t>
+          <t>pʰol</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>增多</t>
+          <t>疯</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>mol; utan</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>mol-utan</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>pʰol</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>amni</t>
+          <t>pʰoli</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>n; inani.; concrete</t>
+          <t>adj</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>土</t>
+          <t>疯狂的</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>a; mni</t>
+          <t>pʰol; iʔ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>a-mni</t>
+          <t>pʰol-iʔ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3108,187 +3108,187 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>arunasma</t>
+          <t>ftef</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>加速</t>
+          <t>喜欢</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>a; runas; ma</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>a-r&lt;n&gt;ʔas-ma</t>
+          <t>pʰtepʰ</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ftefma</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>arunatsaŋ</t>
+          <t>jaw</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>加速主义</t>
+          <t>要; 想要</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>a; runas; taŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>r&lt;n&gt;ʔas-taŋ</t>
+          <t>jʔaw</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>erunaatsaŋu</t>
+          <t>jawlu; ihawlu</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>erunatsaŋu</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>root</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>加速主义者</t>
+          <t>坏</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>e; runas; taŋ; r</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>e-runas-taŋ-r</t>
+          <t>hul</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>huli; ahulijɨŋ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>ahulijɨŋ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>疯</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; hul; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>pʰol</t>
+          <t>a-hul\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>pʰoli; pʰolitan; apʰolmoŋ; epʰolim</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>pʰoli</t>
+          <t>jawlu</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>疯狂的</t>
+          <t>嫉妒; 羡慕</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>pʰol; iʔ</t>
+          <t>jaw; luʔ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>pʰol-iʔ</t>
+          <t>jaw-luʔ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ajhawlu</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>aftefma</t>
+          <t>ku</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>喜爱</t>
+          <t>能; 可以</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ftef; ma</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>pʰtepʰ-ma</t>
+          <t>kuʔ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3300,17 +3300,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>ftef</t>
+          <t>kʰakʰu</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>喜欢</t>
+          <t>坏; 恶劣; 恶意</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3320,147 +3320,147 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>pʰtepʰ</t>
+          <t>kʰakʰuʔ</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>apʰtefma</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>jaw</t>
+          <t>alhuqusmoŋ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>要; 想要</t>
+          <t>分析</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>a; luq; \INF; moŋ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>jʔaw</t>
+          <t>a-luq-moŋ</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>jawlu; ihawlu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>tˀɨlnuq</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>坏</t>
+          <t>解开</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>tˀ; luq; &lt;n&gt;</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>hul</t>
+          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>huli; ahulijɨŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>ahulijɨŋ</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root; stative</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>邪恶</t>
+          <t>野性, 野外</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>a; hul; \INF; ɨŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>a-hul\INF-ɨŋ</t>
+          <t>mlu</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>jawlu</t>
+          <t>emluɨŋ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; anim.; concrete; f</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>嫉妒; 羡慕</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaw; luʔ</t>
+          <t>e; mlu; ɨŋ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>jaw-luʔ</t>
+          <t>狼</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ajhawlu</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>ku</t>
+          <t>kkak</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3470,39 +3470,31 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>能; 可以</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>kuʔ</t>
-        </is>
-      </c>
+          <t>敲击声(拟声词)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>kukak</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>kʰakʰu</t>
+          <t>kʰu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>坏; 恶劣; 恶意</t>
+          <t>能; 可以</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3512,7 +3504,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>kʰakʰuʔ</t>
+          <t>kʰuʔ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3524,27 +3516,27 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>alhuqusmoŋ</t>
+          <t>rkotʰi</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v； stative</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>分析</t>
+          <t>直的; 正直的</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>a; luqus; \INF; moŋ</t>
+          <t>rkoc; iʔ</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>a-lʔuq\INF-us-moŋ</t>
+          <t>rkoc-iʔ</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3556,27 +3548,27 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>tˀɨlnuq</t>
+          <t>rkotʰu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>解开</t>
+          <t>直的; 正直的</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>tˀ; luq; &lt;n&gt;</t>
+          <t>rkoc; uʔ</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>tˀ-(a/ɨ)-l&lt;n&gt;ʔuq</t>
+          <t>rkoc-uʔ</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3588,17 +3580,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>mlu</t>
+          <t>ots</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>v; root; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>野性, 野外</t>
+          <t>东西; 杂物; 玩意儿</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3608,39 +3600,35 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>mlu</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>emluɨŋ</t>
-        </is>
-      </c>
+          <t>没有定指态，常用重叠态 tsots</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>emluɨŋ</t>
+          <t>ajhawluwɨŋ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n; anim.; concrete; f</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>狼</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>e; mlu; ɨŋ</t>
+          <t>jawlu; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>狼</t>
+          <t>jʔaw-lu\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3652,7 +3640,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>kkak</t>
+          <t>lu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3662,21 +3650,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>敲击声(拟声词)</t>
+          <t>来</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>luʔ &gt; lu (IIdII)</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>kukak</t>
+          <t>lunaj</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>kʰu</t>
+          <t>hehi</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3686,61 +3678,53 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>能; 可以</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>kʰuʔ</t>
-        </is>
-      </c>
+          <t>去</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>hehiof; hehir</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>rkotʰi</t>
+          <t>hulijɨŋ</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>v； stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>直的; 正直的</t>
+          <t>邪恶</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>rkoc; iʔ</t>
+          <t>huli; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>rkoc-iʔ</t>
+          <t>hul-i\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>hulijɨŋ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>rkotʰu</t>
+          <t>tˀonualis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3750,39 +3734,35 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>直的; 正直的</t>
+          <t>更好</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>rkoc; uʔ</t>
+          <t>tˀon; uʔ; alis</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>rkoc-uʔ</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>tˀon-uʔ-alis</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>ots</t>
+          <t>nkats</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root; intr.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>东西; 杂物; 玩意儿</t>
+          <t>残留; 残余</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3792,15 +3772,19 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>没有定指态，常用重叠态 tsots</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ajhawluwɨŋ</t>
+          <t>nunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3810,97 +3794,97 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>嫉妒</t>
+          <t>赘余物; 残渣</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>jawlu; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>jʔaw-lu\INF-ɨŋ</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>nunɨatsi; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>lu</t>
+          <t>anunɨatsijɨŋ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>来</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>luʔ &gt; lu (IIdII)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>lunaj</t>
-        </is>
-      </c>
+          <t>赘余物; 残渣</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>a; nunɨatsi; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>hehi</t>
+          <t>nunɨatsi</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>去</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+          <t>残存; 冗余</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>n&lt;n&gt;kats\PFV-iʔ</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nunɨatsijɨŋ</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>nkas</t>
+          <t>ehuntimu</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; anim.; hum.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>残留; 残存; 残余</t>
+          <t>谋杀者</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>e; huntim; \INF; r</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>e-huntim\INF-r</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -3908,245 +3892,257 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>hulijɨŋ</t>
+          <t>paq</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root; tr.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>邪恶</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>hul; \INF; ɨŋ</t>
-        </is>
-      </c>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>hul\INF-ɨŋ</t>
+          <t>ʔpaq</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>waqma</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>tˀonualis</t>
+          <t>ftoŋ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>更好</t>
+          <t>落下; 摔倒</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tˀon; uʔ; alis</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>tˀon-uʔ-alis</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>pʰtoŋ</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ftoŋep; qˀaftoŋ; qˀaftoŋis; pʰutoŋ</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>nkats</t>
+          <t>qˀaftoŋ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>v; root; intr.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>残留; 残余</t>
+          <t>降下</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ; ftoŋ</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>tˀanunkats; nunɨatsi; nunkʰatsmoŋ</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>nunɨatsijɨŋ</t>
+          <t>qˀaftoŋis</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>赘余物; 残渣</t>
+          <t>降伏</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>nunɨatsi; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+          <t>qˀaftoŋ; is</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>qˀapʰtoŋ-is</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>anunɨatsijɨŋ</t>
+          <t>ftoŋep</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>赘余物; 残渣</t>
+          <t>向低处去; 安定</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>a; nunɨatsi; \INF; ɨŋ</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+          <t>ftoŋ; ep</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ftoŋ-ep</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>aftoŋepmoŋ</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>nunɨatsi</t>
+          <t>aftoŋepmoŋ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>残存; 冗余</t>
+          <t>情况; 关头</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>nkats; \PFV; &lt;n&gt;; iʔ</t>
+          <t>a; ftoŋep; moŋ</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>n&lt;n&gt;kats\PFV-iʔ</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>nunɨatsijɨŋ</t>
-        </is>
-      </c>
+          <t>a-ftoŋep-moŋ</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>ehuntimu</t>
+          <t>ituŋ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>n; anim.; hum.</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>谋杀者</t>
+          <t>整合; 变完整</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>e; huntim; \INF; r</t>
+          <t>jɨtu</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>e-huntim\INF-r</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
+          <t>jtuŋ &gt; ituŋ</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ituŋmic</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>paq</t>
+          <t>jɨtu</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>v; root; tr.</t>
+          <t>num.; collective</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>做</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>ʔpaq</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>waqma</t>
-        </is>
-      </c>
+          <t>团体; 联合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ɨt</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>ftoŋ</t>
+          <t>ɨt</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>v; intr.; root</t>
+          <t>num.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>落下; 摔倒</t>
+          <t>1; 一</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4156,71 +4152,71 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>pʰtoŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ftoŋep; qˀaftoŋ; qˀaftoŋis</t>
+          <t>jɨtu</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋ</t>
+          <t>mni</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; inani.; concrete</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>降下</t>
+          <t>土</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>qˀ; ftoŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>qˀ-(a/ɨ)-pʰtoŋ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>qˀaftoŋis</t>
+          <t>ftefma</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>降伏</t>
+          <t>喜爱</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>qˀaftoŋ; is</t>
+          <t>ftef; ma</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>qˀapʰtoŋ-is</t>
+          <t>pʰtepʰ-ma</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4232,39 +4228,39 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ftoŋep</t>
+          <t>ihawluwɨŋ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>向低处去; 安定</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ftoŋ; ep</t>
+          <t>jawlu; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ftoŋ-ep</t>
+          <t>jʔaw-lu\INF-ɨŋ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>aftoŋepmoŋ</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>aftoŋepmoŋ</t>
+          <t>jhawluwɨŋ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4274,64 +4270,76 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>情况; 关头</t>
+          <t>嫉妒</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>a; ftoŋep; moŋ</t>
+          <t>jawlu; \INF; ɨŋ</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>a-ftoŋep-moŋ</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+          <t>jʔaw-lu\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>ituŋ</t>
+          <t>pˀospiku</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>n; anim.; hum.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>整合; 变完整</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>jɨtu</t>
+          <t>pˀo; spik; r</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>jtuŋ &gt; ituŋ</t>
+          <t>pˀo-spik-r &gt; pˀo-spiku</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ituŋmic</t>
+          <t>pˀospikir</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>jɨtu</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+          <t>pˀospikir</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>n; hum.; anim.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>条子; 黑警</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ɨt</t>
+          <t>pˀo; spik; ir</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -4340,403 +4348,383 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>ɨt</t>
+          <t>spik</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>num.</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1; 一</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>监视; 检查</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>jɨtu</t>
+          <t>pˀospiku</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>mni</t>
+          <t>siku</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>n; inani.; concrete</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>土</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>拥有; 掌握</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>ftefma</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>喜爱</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>ftef; ma</t>
-        </is>
-      </c>
+          <t>拥有; 掌握</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>pʰtepʰ-ma</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>skuʔ &gt; sku (VdII)</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>ihawluwɨŋ</t>
+          <t>utam</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; root</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>嫉妒</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>jawlu; \INF; ɨŋ</t>
-        </is>
-      </c>
+          <t>斥责</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>jʔaw-lu\INF-ɨŋ</t>
+          <t>rtam</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>rutamlu</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>jhawluwɨŋ</t>
+          <t>rutamlu</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>嫉妒</t>
+          <t>辱骂; 谩骂</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>jawlu; \INF; ɨŋ</t>
+          <t>utam; luʔ</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>jʔaw-lu\INF-ɨŋ</t>
+          <t>r&lt;w&gt;tam-luʔ</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>rutamluwɨŋ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>spip</t>
+          <t>rutamluwɨŋ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>监视; 检查</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+          <t>辱骂; 谩骂行为</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>rutamlu; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>r&lt;w&gt;tam-luw-ɨŋ</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>pˀospiku</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>pˀospiku</t>
+          <t>tkon</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>n; anim.; hum.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>警察</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>pˀo; spik; r</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>pˀo-spik-r &gt; pˀo-spiku</t>
-        </is>
-      </c>
+          <t>给</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>pˀospikir</t>
+          <t>turkon; tunkon</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>pˀospikir</t>
+          <t>lem</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>n; hum.; anim.</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>条子; 黑警</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>pˀo; spik; ir</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>lʔem &gt; lem (VdV) PROG: lˀem &gt; lam PFV: laem INF: lhem &gt; uhem</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>lemip; lemma; rrem</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>spik</t>
+          <t>lemma</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>监视; 检查</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>词汇; 词条; 法条</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>lem; ma</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>pˀospiku</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>siku</t>
+          <t>lemip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>拥有; 掌握</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>话语</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>lem; ip</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>sku</t>
+          <t>titslu</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>拥有; 掌握</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
+          <t>吵闹; 喧闹</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>tits; luʔ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>tits-luʔ</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>qˀɨtitslu</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>utam</t>
+          <t>qˀɨtitslu</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>v; root</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>斥责</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>闹(灾害), 使...受吵闹</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>qˀ; titslu</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>rtam</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>rutamlu</t>
-        </is>
-      </c>
+          <t>qˀ-(a/ɨ)-tits-luʔ</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>rutamlu</t>
+          <t>ptor</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; root; tr.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>辱骂; 谩骂</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>utam; luʔ</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>r&lt;w&gt;tam-luʔ</t>
-        </is>
-      </c>
+          <t>放置</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>rutamluwɨŋ</t>
+          <t>ptorus</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>rutamluwɨŋ</t>
+          <t>ptorus</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>辱骂; 谩骂行为</t>
+          <t>支持</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>rutamlu; \INF; ɨŋ</t>
+          <t>ptor; us</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>r&lt;w&gt;tam-luw-ɨŋ</t>
+          <t>ptor-us</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ptorusɨm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>tkon</t>
+          <t>ptorusɨm</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4746,60 +4734,56 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>给</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>反对</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ptorus; ɨm</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>turkon; tunkon</t>
-        </is>
-      </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>lem</t>
+          <t>tsˀas</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>v; stative</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>说</t>
+          <t>大</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>lʔem &gt; lem (VdV) PROG: lˀem &gt; lam PFV: laem INF: lhem &gt; uhem</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>lemma</t>
+          <t>tsequ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>词汇; 词条; 法条</t>
+          <t>到达; 到来</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>lem; ma</t>
+          <t>tseq; uʔ</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -4808,274 +4792,278 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>lemip</t>
+          <t>ŋɨki</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>话语</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>lem; ip</t>
-        </is>
-      </c>
+          <t>认识</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ŋɨkiŋaj</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>titslu</t>
+          <t>ŋɨkiŋaj</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>吵闹; 喧闹</t>
+          <t>承认</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>tits; luʔ</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>tits-luʔ</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>qˀɨtitslu</t>
-        </is>
-      </c>
+          <t>ŋɨki; ŋaj</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>qˀɨtitslu</t>
+          <t>waqma</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>闹(灾害), 使...受吵闹</t>
+          <t>做完的事; 事实</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>qˀ; titslu</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>qˀ-(a/ɨ)-tits-luʔ</t>
-        </is>
-      </c>
+          <t>paq; \PFV; ma</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>ptor</t>
+          <t>qqan</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>v; root; tr.</t>
+          <t>v; tr.; root</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>放置</t>
+          <t>分成两半; 平分</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ptorus</t>
+          <t>qunoanip</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>ptorus</t>
+          <t>qunoanip</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>党派</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ptor; us</t>
+          <t>qqan; &lt;n&gt;; \PFV; ip</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ptor-us</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>ptorusɨm</t>
-        </is>
-      </c>
+          <t>q&lt;n&gt;qan\PFV-ip</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>ptorusɨm</t>
+          <t>tits</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>反对</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>ptorus; ɨm</t>
-        </is>
-      </c>
+          <t>吵闹声; 喧嚣</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>titslu</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>ts'ats</t>
+          <t>hehiof</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>大</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+          <t>前进, 激进</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>hehi; of</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>hehi-of</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>tsˀas</t>
+          <t>rrem</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>v; stative</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>大</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+          <t>反复说; 说回去</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>lem; &lt;r&gt;</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>l&lt;r&gt;ʔem &gt; rrem</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>tsequ</t>
+          <t>jami</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>v; intr.</t>
+          <t>v; intr.; root</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>到达; 到来</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>tseq; uʔ</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+          <t>满足; 饱</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>jamiʔ &gt; jami (IIdII)</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>jamijɨŋ</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>ŋɨki</t>
+          <t>jamijɨŋ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>n; abstract</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>认识</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>饱足; 餍足</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>jami; \INF; ɨŋ</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>ŋɨkiŋaj</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>ŋɨkiŋaj</t>
+          <t>stalip</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>v; tr.</t>
+          <t>n; concrete</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>承认</t>
+          <t>星座</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ŋɨki; ŋaj</t>
+          <t>stal; ip</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -5084,100 +5072,1324 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>waqma</t>
+          <t>pqun</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>v; tr.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>做完的事; 事实</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>paq; \PFV; ma</t>
-        </is>
-      </c>
+          <t>运输; 运送</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>tˀɨpqun</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>qqan</t>
+          <t>tˀɨpqun</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>v; tr.; root</t>
+          <t>v; intr.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>分成两半; 平分</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+          <t>载着东西运动; 负重运动</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>tˀ; pqun</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>tˀ-(a/ɨ)-pqun</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>qunoanip</t>
+          <t>tˀɨpqunil</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>qunoanip</t>
+          <t>tˀɨpqunil</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>n; abstract</t>
+          <t>n; concrete</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>党派</t>
+          <t>载具; 车辆; 飞船</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>qqan; &lt;n&gt;; \PFV; ip</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>q&lt;n&gt;qan\PFV-ip</t>
-        </is>
-      </c>
+          <t>tˀɨpqun; il</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>tits</t>
+          <t>hehir</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>v; intr.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>回去</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>hehi; &lt;r&gt;</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>hehiʔ-r</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>pʰutoŋ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>v; intr.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>(突然)下坠; 下冲</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>ftoŋ; &lt;w&gt;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>pʰ&lt;w&gt;toŋ</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>uhuqusmoŋ</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>n; abstract</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>吵闹声; 喧嚣</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>titslu</t>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>luq; \INF; moŋ</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>luq\INF-moŋ</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>num.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>tiŋkan</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>舔</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>tiŋkʰano; tiŋkʰanip</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>tiŋkʰano</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>舌头</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>tiŋkan; \INF; on</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>tiŋkʰanip</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>语言</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>tiŋkan; \INF; ip</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>tiŋkan\INF-ip</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>tiŋkʰaniptaŋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>tiŋkʰaniptaŋ</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>语言学</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>tiŋkʰanip; taŋ</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>atiŋkʰaniptaŋ</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>语言学</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>a; tiŋkʰanip; taŋ</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>etiŋkʰaniptaŋ</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>n; anim.; hum.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>语言学家</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>e; tiŋkʰanip; taŋ</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>tɨr</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>v; intr.; root</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>自由</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>htɨr</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>qˀɨɨtʰɨr; aatʰɨrmoŋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>qˀɨɨtɨr</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>解放</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>qˀ; tɨr</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>qˀ-(a/ɨ)-htɨr</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>uts</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>目; 眼</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>lts &gt; uts</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>onilts</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>onilts</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>n; concrete; dim.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>眼睛</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>oni; uts</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>uts 的小称, 但更加常见的形式</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>sɨmaŋ</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>n; anim.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>生命; 活力</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>sɨmaŋu</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>sɨmaŋu</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>有生命</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>sɨmaŋ; uʔ</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>sɨmaŋ-uʔ</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>xrox</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>血</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>qʰrokʰ &gt; xrox</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>xrokʰu</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>sof</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>身体</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sopʰitʰan</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>sopʰitʰan</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>实体</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>sof; itan; \INF</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>sopʰ-itan/INF</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>xrokʰu</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>v; stative</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>血腥的</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>xrox; uʔ</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>qʰrokʰ-uʔ</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>tsˀar</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>战争</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>qˀatsˀarutan</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>qˀatsˀarutan</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>n; tr.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>交战</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>qˀ; tsˀar; utan</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>qˀ-(a/ɨ)-tsˀar-utan</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>jarrts</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>双眼</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>jar; uts</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>uts 的双数, jar-lts &gt; jarrts</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>tsquj</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>v; intr.; root</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>到达</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>tsurquj</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>tsurquj</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>v; intr.</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>回归; 回到</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>tsquj; &lt;r&gt;</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>ts&lt;r&gt;quj</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>tstʰal</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>n; root</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>星星</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>stʰal &gt; tstʰal</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>tstʰalip</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>tstʰalip</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>星座</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>tstʰal; ip</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>kʰatsaq</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>n; intr.; root</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>庆祝</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>kʰastaq &gt; kʰatsaq</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>kʰatstʰaqɨp</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>kʰatstʰaqɨp</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>庆典; 节日</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>kʰatsaq; \INF; ip</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>kʰatsaq\INF-ip →  kʰastʰaq-ip &gt; kʰatstʰaqɨp</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>ut</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>手</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>nt &gt; ut</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>jarrt</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>jarrt</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>双手</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>jar; ut</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>jar-nt &gt; jarrt</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>okkʰiant</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>大手; 手</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>okkʰia; ut</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>okkʰia-nt</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>okkʰolant</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>大手; 手</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>okkʰola; ut</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>okkʰola-nt</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>kʰoc</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>口</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>kʰotʰet</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>kʰottʰet</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>口腔</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>kʰoc; tʰet</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>tʰet</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>空腔; 腔室</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>lus</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>v; tr.; root</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>丢失; 失</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>uhusma</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>kpiɨ</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>v; tr.; root</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>锁; 封锁</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>kˀpiˀ &gt; kpiɨ</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>kˀopiɨ; kpʰiˀɨŋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>kpʰiˀɨŋ</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>锁</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>kpiɨ; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>kpiɨ\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>鲜肉; 血肉</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>ms &gt; us</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ommams</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>ommams</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>大肉; 肉</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>omma; ms</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>omma-ms</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>n; concrete</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鲜肉; 血肉</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>ms &gt; us | ums (intermedial)</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ommams</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>ahulɨjɨŋ</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>邪恶</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>a; hul; \INF; ɨŋ</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>a-hul\INF-ɨŋ</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>tpon</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>v; intr.; stative</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>转变; 转化</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>qˀatpon</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>qˀatpon</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>v; tr.</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>转变为; 转化成</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>qˀ; tpon</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>qˀ-(a/ɨ)-tpɨr</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>tpʰonmoŋ</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>n; abstract</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>转变; 转化</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>tpon; \INF; moŋ</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>qˀatpon</t>
         </is>
       </c>
     </row>
